--- a/C_study_basic/1_Beginner/1_basic/5_scanf/student_info.xlsx
+++ b/C_study_basic/1_Beginner/1_basic/5_scanf/student_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="13995" windowHeight="7605"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="18315" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="student_info" sheetId="1" r:id="rId1"/>
@@ -988,9 +988,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
